--- a/biology/Médecine/Tubercule_de_Montgomery/Tubercule_de_Montgomery.xlsx
+++ b/biology/Médecine/Tubercule_de_Montgomery/Tubercule_de_Montgomery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tubercules de Montgomery, appelées aussi glandes de Montgomery, sont des petites protubérances rondes de la peau de l'aréole qui entoure le mamelon du sein formées par les glandes aréolaires sous-jacentes. Leur nom a été donné par l'obstétricien irlandais qui les décrit le premier en 1837, le docteur William Fetherstone Montgomery (en).
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glandes de Morgagni sont des glandes sudoripares ; elles prennent le nom de Montgomery lorsqu'elles sont modifiées lors de la grossesse. Leur nombre varie considérablement mais on en dénombre en moyenne de 4 à 28 par mamelon, aussi bien chez les hommes que les femmes.
 </t>
@@ -542,9 +556,11 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peau au-dessus du tubercule est lubrifiée et tend à être plus lisse que le reste de l'aréole. Lorsque les tétons sont stimulés (froid, allaitement, excitation sexuelle), la piloérection déclenchée par l'ocytocine les fait pointer et fait grossir les glandes : il s'agit d'un réflexe vestigial[1]. Sous l'influence de l'hormone de grossesse, les aréoles et les tubercules des seins deviennent plus foncés et particulièrement volumineux vers la huitième semaine de grossesse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peau au-dessus du tubercule est lubrifiée et tend à être plus lisse que le reste de l'aréole. Lorsque les tétons sont stimulés (froid, allaitement, excitation sexuelle), la piloérection déclenchée par l'ocytocine les fait pointer et fait grossir les glandes : il s'agit d'un réflexe vestigial. Sous l'influence de l'hormone de grossesse, les aréoles et les tubercules des seins deviennent plus foncés et particulièrement volumineux vers la huitième semaine de grossesse.
 </t>
         </is>
       </c>
